--- a/DesignerConfigs/Datas/test/luban_assistant_test_multi_rows.xlsx
+++ b/DesignerConfigs/Datas/test/luban_assistant_test_multi_rows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9714D7-E0F8-4447-A461-B019D5397166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5598A3B3-4C27-4E48-9F3E-18C9B68C68BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="2505" windowWidth="25335" windowHeight="12915" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
+    <workbookView xWindow="30555" yWindow="2700" windowWidth="25335" windowHeight="12915" xr2:uid="{63D940A5-3309-4C9F-BA0D-46021583473B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,64 +39,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##table=test.TbExcelFromJsonMultiRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table=test.TbExcelFromJsonMultiRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>1,3,5</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_rows=4</t>
+    <t>##field</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,173 +493,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93DC25B-4CF4-4E55-9649-32BD1CC0F91C}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="3" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>9</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
-      </c>
-      <c r="G7">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -668,35 +684,13 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="G3:H3"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
